--- a/data.xlsx
+++ b/data.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L2" sqref="L2:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
